--- a/050_DBTool/Breezee.WorkHelper.DBTool.UI/DataTemplate/DBTool/AutoEntity/模板_生成实体.xlsx
+++ b/050_DBTool/Breezee.WorkHelper.DBTool.UI/DataTemplate/DBTool/AutoEntity/模板_生成实体.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="实体模板" sheetId="5" r:id="rId1"/>
@@ -362,7 +362,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="144">
   <si>
     <t>变量名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1070,6 +1070,18 @@
   </si>
   <si>
     <t>变量内容条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.cs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件后缀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1532,40 +1544,50 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="46.75" customWidth="1"/>
     <col min="2" max="2" width="87.75" customWidth="1"/>
+    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="180.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="180.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>82</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1583,7 +1605,7 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
